--- a/output_file/output.xlsx
+++ b/output_file/output.xlsx
@@ -6,45 +6,21 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="書き出しの概要" sheetId="1" r:id="rId4"/>
-    <sheet name="シート1" sheetId="2" r:id="rId5"/>
+    <sheet name="20180811" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
-  <si>
-    <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
-  </si>
-  <si>
-    <t>Numbersシート名</t>
-  </si>
-  <si>
-    <t>Numbers表名</t>
-  </si>
-  <si>
-    <t>Excelワークシート名</t>
-  </si>
-  <si>
-    <t>シート1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>表1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-      </rPr>
-      <t>シート1</t>
-    </r>
+    <t>名前</t>
   </si>
   <si>
-    <t>名前</t>
+    <t>プロジェクト名</t>
   </si>
   <si>
     <t>実績</t>
@@ -56,10 +32,19 @@
     <t>Sample1</t>
   </si>
   <si>
+    <t>PJ1</t>
+  </si>
+  <si>
     <t>Sample2</t>
   </si>
   <si>
+    <t>PJ2</t>
+  </si>
+  <si>
     <t>Sample3</t>
+  </si>
+  <si>
+    <t>PJ3</t>
   </si>
 </sst>
 </file>
@@ -69,7 +54,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -86,23 +71,12 @@
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="ヒラギノ角ゴ ProN W3"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <color indexed="13"/>
-      <name val="ヒラギノ角ゴ ProN W3"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W6"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,30 +91,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -156,95 +118,8 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -255,7 +130,7 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -268,112 +143,127 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="16"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="16"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="16"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="16"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="16"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="16"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="16"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="16"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -383,104 +273,56 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -502,9 +344,6 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff5e88b1"/>
-      <rgbColor rgb="ffeef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ff3f3f3f"/>
@@ -1573,373 +1412,271 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="4" width="33.6719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="256" width="10" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="12.95" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" ht="12.95" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" ht="50" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" t="s" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" ht="12.95" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" ht="12.95" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" ht="12.95" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" ht="16.95" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" t="s" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" ht="12.95" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" ht="14.95" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" t="s" s="10">
-        <v>4</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" ht="15.25" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" t="s" s="14">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="15">
-        <v>6</v>
-      </c>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" ht="14.95" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" t="s" s="17">
-        <v>4</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" ht="15.25" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" t="s" s="14">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s" s="15">
-        <v>6</v>
-      </c>
-      <c r="E12" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="19" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="19" customWidth="1"/>
+    <col min="1" max="8" width="16.3516" style="1" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
-      <c r="A1" t="s" s="20">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" ht="18.5" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" ht="18.5" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" t="s" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="9">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="18.3" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" ht="18.5" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" ht="18.5" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" t="s" s="25">
+      <c r="C4" t="s" s="13">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" ht="18.3" customHeight="1">
+      <c r="A5" s="11"/>
+      <c r="B5" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="26">
+      <c r="C5" t="s" s="13">
         <v>8</v>
       </c>
-      <c r="D3" t="s" s="26">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" ht="18.3" customHeight="1">
+      <c r="A6" s="11"/>
+      <c r="B6" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" ht="18.3" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" t="s" s="29">
+      <c r="C6" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" ht="18.3" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" t="s" s="29">
-        <v>11</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" ht="18.3" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" t="s" s="29">
-        <v>12</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" ht="18.3" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" ht="18.3" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" ht="18.3" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" ht="18.3" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" ht="18.3" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" ht="18.3" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" ht="18.3" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" ht="18.3" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" ht="18.3" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" ht="18.3" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" ht="18.3" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" ht="18.3" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" ht="18.3" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" ht="18.3" customHeight="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" ht="18.3" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" ht="18.3" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" ht="18.3" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
